--- a/Archive/2x.xlsx
+++ b/Archive/2x.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal@HDD\Game\DL\dragalia-data-track\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE9C6B-D5A9-4D8D-8BEE-68BD259296D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D44A835-3087-430B-B29C-1987F3E3DC22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{6A56E3E4-D404-40D9-95FE-4BC4F8357D24}"/>
+    <workbookView xWindow="1905" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{6A56E3E4-D404-40D9-95FE-4BC4F8357D24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>5 (一)</t>
   </si>
@@ -196,15 +196,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- 表中日期皆指當日換日後 (14:00 +8) -  /  - 背景有屬性顏色者代表當日有對應超龍 -  /  - 共鬥素材為單機的1.0~1.5x左右 -</t>
+      <t xml:space="preserve">- 表中日期皆指當日換日後 (14:00 +8) -  /  - 背景有屬性顏色者代表當日有對應超龍 -  /  - 共鬥素材為單機的1.0~1.5x左右 -  /  - </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$ 沒有 2x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+  </si>
+  <si>
+    <t>高龍共鬥影片集: http://rnnx.cc/aenSJ / 超龍共鬥影片集: http://rnnx.cc/zzZhe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +419,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -802,9 +832,6 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,15 +893,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,11 +915,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2D1341"/>
       <color rgb="FF4C0000"/>
       <color rgb="FF500000"/>
       <color rgb="FF003618"/>
       <color rgb="FF004620"/>
-      <color rgb="FF2D1341"/>
       <color rgb="FF474C00"/>
       <color rgb="FF00233E"/>
       <color rgb="FF6E7600"/>
@@ -914,14 +944,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>517326</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>260151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -951,7 +981,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="517326"/>
+          <a:off x="0" y="803076"/>
           <a:ext cx="8867775" cy="4988124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -965,13 +995,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1015,13 +1045,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1361,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC67108-2805-4DBB-9460-8F0B8CAA6B10}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1375,507 +1405,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="68" t="s">
+    <row r="2" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P3" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="74" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
-    </row>
-    <row r="4" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="76" t="s">
+      <c r="I4" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="4"/>
+      <c r="J4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="84" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="78" t="s">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="78" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="79" t="s">
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="79" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="A8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
+      <c r="A9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="73" t="s">
-        <v>27</v>
-      </c>
+    <row r="11" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:16" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="4"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="74" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
+      <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="40"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="64"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
+      <c r="A19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="63"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
       <c r="P19" s="4"/>
     </row>
+    <row r="20" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
